--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3713825.766590063</v>
+        <v>3817237.502554141</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498523</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7426309.297197876</v>
+        <v>7391279.575925121</v>
       </c>
     </row>
     <row r="11">
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.152727013335143</v>
+        <v>23.79925355567458</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>119.5716365983133</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>160.8915086215183</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>81.90446037005046</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>147.0290144562263</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1026,7 +1028,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U6" t="n">
         <v>225.7871683969286</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1069,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>36.26648746645241</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>46.51469274693513</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>86.99815441006878</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>10.13659100914432</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.4316814999503</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>206.6028641186427</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701348</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>14.76058440587529</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>132.6164309267676</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>123.9815576456779</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1844,10 +1846,10 @@
         <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722617</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>120.7871326503968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>60.25690685266593</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833861</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>101.9434035445953</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2476,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>22.61263105777525</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>115.4764219077142</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>102.1656705247866</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898978</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065883</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261695</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545296</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308917</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002293</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541843</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652598</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808212</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096051</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352487</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972046</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317885</v>
+        <v>71.58885292963951</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445515</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969976</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>45.17596778974989</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541838</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>38.76543552489255</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>2.607010073155619</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652498</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695511</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>135.4684761590197</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>68.64373283592745</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856535</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012149</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4325,7 +4327,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
@@ -4340,37 +4342,37 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2741.012457539436</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2741.012457539436</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y2" t="n">
         <v>2731.767278738087</v>
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>501.2115707469939</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>501.2115707469939</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>501.2115707469939</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>501.2115707469939</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4513,25 +4515,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>729.2011216450112</v>
+        <v>758.3703304429139</v>
       </c>
       <c r="V4" t="n">
-        <v>729.2011216450112</v>
+        <v>758.3703304429139</v>
       </c>
       <c r="W4" t="n">
-        <v>729.2011216450112</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="X4" t="n">
-        <v>501.2115707469939</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>501.2115707469939</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943748</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1308.370295943748</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>950.1045973369974</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>564.3163447387531</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4589,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3177.09166559278</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3177.09166559278</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3177.09166559278</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>403.1511359853714</v>
+        <v>439.7839516080506</v>
       </c>
       <c r="C7" t="n">
-        <v>234.2149530574645</v>
+        <v>270.8477686801436</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>270.8477686801436</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>270.8477686801436</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>270.8477686801436</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>103.1449320548626</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4750,25 +4752,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438285</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V7" t="n">
-        <v>584.7996008156111</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="W7" t="n">
-        <v>584.7996008156111</v>
+        <v>439.7839516080506</v>
       </c>
       <c r="X7" t="n">
-        <v>584.7996008156111</v>
+        <v>439.7839516080506</v>
       </c>
       <c r="Y7" t="n">
-        <v>584.7996008156111</v>
+        <v>439.7839516080506</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1252.833343223198</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1252.833343223198</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1252.833343223198</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>867.0450906249539</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3315.366840791853</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>3061.836364065689</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794326</v>
+        <v>2730.773476722119</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524211</v>
+        <v>2378.004821452004</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.572515263132</v>
+        <v>2004.539063190924</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.43318328732</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>439.7839516080513</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="C10" t="n">
-        <v>439.7839516080513</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D10" t="n">
-        <v>439.7839516080513</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>439.7839516080513</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>439.7839516080513</v>
+        <v>712.1972440821821</v>
       </c>
       <c r="Y10" t="n">
-        <v>439.7839516080513</v>
+        <v>712.1972440821821</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5023,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362689</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5066,10 +5068,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>802.9288273958734</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>652.8121879835377</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>504.8990944011446</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>358.0091469032342</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>190.8130476181141</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>849.3843576263199</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5358,25 +5360,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069456</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.207143961552</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O15" t="n">
-        <v>2022.116874200839</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,19 +5415,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9405071576781</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>219.0505596597677</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>219.0505596597677</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5495,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5540,10 +5542,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2716.927329289434</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L18" t="n">
-        <v>3212.252935505192</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M18" t="n">
-        <v>3241.424143276705</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N18" t="n">
-        <v>3869.022106831312</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>4420.931837070599</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
         <v>93.81666304797187</v>
@@ -5707,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5747,16 +5749,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565524</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683104</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998291</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998291</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2161.135114341634</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1872.059887685832</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1617.375399479945</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.958229442984</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>879.1760994014371</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,37 +6004,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,22 +6253,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>2716.927329289434</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>3212.252935505192</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>3809.631423131744</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>4437.229386686351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>4437.229386686351</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>699.7311804011399</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>699.7311804011399</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888042</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1874.263433515775</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1619.578945309888</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1330.161775272927</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1102.17222437491</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>881.3796452313796</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,40 +6457,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.769289033212</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2978.493192213311</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>2834.08695624706</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>2708.500263796383</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>2585.117117175646</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2462.757116639392</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2320.090964315928</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2202.909080119783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2145.352323729353</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2249.630143176796</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2535.361206719454</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>2949.801601912513</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3395.853105660667</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3837.304778337794</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4547.593116654576</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4648.317395612653</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4489.992508229214</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4294.920990213811</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4030.375710519665</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3800.221169275434</v>
+        <v>1616.073881198505</v>
       </c>
       <c r="W31" t="n">
-        <v>3535.33394620013</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X31" t="n">
-        <v>3331.874342263768</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y31" t="n">
-        <v>3135.611710081894</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6682,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6689,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075811</v>
@@ -6710,7 +6712,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,10 +6733,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852888</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2817.800993781636</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>2817.800993781636</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>3445.398957336243</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>3997.30868757553</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,22 +6949,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913447</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2381.235169913447</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>2381.235169913447</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>2854.44064873475</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="38">
@@ -7151,73 +7153,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239597</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397185</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>924.8344286397185</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>803.2707707770348</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>634.3345878491281</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150016</v>
+        <v>631.7012443408901</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>631.7012443408901</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580107</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345468</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384012</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311318</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1205.711814750804</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>984.9192356072745</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,22 +7399,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,19 +7487,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,19 +7727,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096656</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
         <v>1896.176478190824</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3012.408157764293</v>
+        <v>869.9745311434716</v>
       </c>
       <c r="C46" t="n">
-        <v>3012.408157764293</v>
+        <v>701.0383482155647</v>
       </c>
       <c r="D46" t="n">
-        <v>2875.571313159222</v>
+        <v>701.0383482155647</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159222</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305901</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328842</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.25592267304</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V46" t="n">
-        <v>3932.25592267304</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W46" t="n">
-        <v>3642.838752636079</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X46" t="n">
-        <v>3414.849201738062</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y46" t="n">
-        <v>3194.056622594532</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
   </sheetData>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>125.5341284403486</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>85.96822242532721</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>16.31315520054598</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>115.4620467826929</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>144.6341900408526</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>30.95754073885493</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>184.0188038644575</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>180.5487903941885</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>172.2294825375384</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>179.8192178272022</v>
       </c>
     </row>
     <row r="38">
@@ -25552,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.0084629450566</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>52.01660326104803</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>13.14699685919251</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.433962646569</v>
+        <v>77.79022981064172</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238278</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>650946.0268051153</v>
+        <v>640177.2699200503</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>650946.0268051153</v>
+        <v>640177.2699200503</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>650946.0268051153</v>
+        <v>640177.2699200503</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>650946.0268051153</v>
+        <v>640177.2699200504</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>650946.0268051153</v>
+        <v>640177.2699200503</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>640177.2699200504</v>
+        <v>640177.2699200503</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="E2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977561</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176769</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176772</v>
+        <v>786967.934697756</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176763</v>
+        <v>786967.934697756</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176757</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176771</v>
+        <v>786967.9346977554</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977555</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363162</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.063298011819521e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.130482933078058e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.005426303970955e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687972</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687961</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="K4" t="n">
-        <v>23427.49926997301</v>
-      </c>
       <c r="L4" t="n">
-        <v>23427.49926997312</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="M4" t="n">
-        <v>23427.49926997306</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.49926997312</v>
+        <v>15436.6400068798</v>
       </c>
       <c r="O4" t="n">
-        <v>23427.49926997313</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687982</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729759.7047753625</v>
+        <v>-729759.7047753626</v>
       </c>
       <c r="C6" t="n">
-        <v>598985.0409522301</v>
+        <v>598985.0409522299</v>
       </c>
       <c r="D6" t="n">
-        <v>598985.0409522301</v>
+        <v>598985.0409522298</v>
       </c>
       <c r="E6" t="n">
-        <v>344996.3030596143</v>
+        <v>344996.3030596139</v>
       </c>
       <c r="F6" t="n">
-        <v>670408.7648669694</v>
+        <v>670408.7648669691</v>
       </c>
       <c r="G6" t="n">
         <v>670408.7648669693</v>
       </c>
       <c r="H6" t="n">
-        <v>670408.7648669694</v>
+        <v>670408.7648669686</v>
       </c>
       <c r="I6" t="n">
         <v>670408.7648669688</v>
@@ -26546,19 +26548,19 @@
         <v>452877.5624696917</v>
       </c>
       <c r="K6" t="n">
-        <v>654496.3925001568</v>
+        <v>670408.7648669687</v>
       </c>
       <c r="L6" t="n">
-        <v>673924.1104937887</v>
+        <v>670408.7648669691</v>
       </c>
       <c r="M6" t="n">
-        <v>588869.082558276</v>
+        <v>585353.7369314574</v>
       </c>
       <c r="N6" t="n">
-        <v>673924.1104937871</v>
+        <v>670408.7648669688</v>
       </c>
       <c r="O6" t="n">
-        <v>673924.1104937886</v>
+        <v>670408.7648669684</v>
       </c>
       <c r="P6" t="n">
         <v>670408.7648669688</v>
@@ -26692,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203967</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>7.308439567818174e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,22 +26810,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,16 +26934,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.413103666347572e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>377.0852116427184</v>
+        <v>362.438685100379</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>25.8494114246179</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27585,25 +27587,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>125.3203295840946</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>324.971585371661</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>56.88895568339387</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>108.4885274478684</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,19 +27824,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>205.6229505768929</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27862,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>319.8778913316427</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>193.7813791304758</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.00228114661891</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>19.10679127039444</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28561,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28570,13 +28572,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28624,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>1.399222618112197e-13</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>7.308439567818174e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>7.308439567818174e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>7.308439567818174e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>7.308439567818174e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>7.308439567818174e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>7.308439567818174e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>7.308439567818174e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>7.308439567818174e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>7.308439567818174e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>7.308439567818174e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>7.308439567818174e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>7.308439567818174e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>7.308439567818174e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>7.308439567818174e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>322.7581251332984</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>639.8517673857162</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32090,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>235.5705495535876</v>
       </c>
       <c r="P15" t="n">
-        <v>397.6543049213403</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,31 +32311,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>344.6306853939244</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>194.5189324111248</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>390.1398273256862</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>193.964997009853</v>
+        <v>531.2627466777524</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>579.5299594447124</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647483</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>518.0009690113186</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34144,7 +34146,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236508</v>
@@ -34205,13 +34207,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34220,7 +34222,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>704.1404939038093</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,22 +34447,22 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>384.4721492652006</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214699</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>180.6240912112801</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>508.510055302383</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>92.97430510914316</v>
       </c>
       <c r="P15" t="n">
-        <v>263.67989750701</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>206.7892464195654</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>55.96455263125056</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>256.165419911356</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>59.99058959552271</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549929</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016745</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.626661811171</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930847</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.910780481947</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.546547198085</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986645</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919379</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>440.9755796648383</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>477.98533214273</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>386.6592569279853</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37868,7 +37870,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>572.7987818204761</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>245.9177694853264</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071396</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295359</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3817237.502554141</v>
+        <v>3813224.892540149</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.79925355567458</v>
+        <v>23.79925355567548</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>160.8915086215183</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>87.56115536271695</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>147.0290144562263</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1028,7 +1028,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U6" t="n">
         <v>225.7871683969286</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>58.28185552386356</v>
       </c>
       <c r="H7" t="n">
-        <v>36.26648746645241</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>170.662051911769</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>10.13659100914432</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>206.6028641186427</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>41.55695577161149</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>132.6164309267676</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766865</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>60.25690685266593</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>101.9434035445953</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>115.4764219077142</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>71.58885292963951</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>45.17596778974989</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.76543552489255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>2.607010073155619</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462237</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>93.40444476188321</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>68.64373283592745</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4327,10 +4327,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4339,7 +4339,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4348,10 +4348,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,19 +4360,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="Y2" t="n">
         <v>2731.767278738087</v>
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4497,43 +4497,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U4" t="n">
-        <v>758.3703304429139</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V4" t="n">
-        <v>758.3703304429139</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W4" t="n">
-        <v>468.9531604059532</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X4" t="n">
-        <v>468.9531604059532</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y4" t="n">
-        <v>248.1605812624231</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1023.012981614818</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3177.09166559278</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3177.09166559278</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3177.09166559278</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2824.323010322666</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>439.7839516080506</v>
+        <v>739.2385409879453</v>
       </c>
       <c r="C7" t="n">
-        <v>270.8477686801436</v>
+        <v>570.3023580600384</v>
       </c>
       <c r="D7" t="n">
-        <v>270.8477686801436</v>
+        <v>420.1857186477026</v>
       </c>
       <c r="E7" t="n">
-        <v>270.8477686801436</v>
+        <v>272.2726250653095</v>
       </c>
       <c r="F7" t="n">
-        <v>270.8477686801436</v>
+        <v>125.3826775673992</v>
       </c>
       <c r="G7" t="n">
-        <v>103.1449320548626</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>439.7839516080506</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>439.7839516080506</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>439.7839516080506</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>2102.48089954095</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1733.518382600539</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1375.252683993788</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>989.4644313955439</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>578.4785266059364</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3315.366840791853</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3061.836364065689</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2730.773476722119</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2378.004821452004</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>2004.539063190924</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>2489.080739605072</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.5487792519424</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>530.5487792519424</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396066</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>712.1972440821821</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>712.1972440821821</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362689</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>849.3843576263199</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,16 +5293,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,19 +5503,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5533,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5743,58 +5743,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2161.135114341634</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1872.059887685832</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1617.375399479945</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.958229442984</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.968678544967</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>879.1760994014371</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6071,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6241,37 +6241,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,22 +6445,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,25 +6545,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.073881198505</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1326.656711161544</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,10 +6733,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852888</v>
@@ -6785,22 +6785,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2334.285089135946</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>944.1833428807391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7201,16 +7201,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852888</v>
@@ -7219,7 +7219,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.2707707770348</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>634.3345878491281</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408901</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408901</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429798</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578599</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854708</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648822</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648822</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750804</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072745</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7429,10 +7429,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,37 +7660,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.9745311434716</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>701.0383482155647</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>701.0383482155647</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>39.70888054695404</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>85.96822242532721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>40.32043864788574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194132</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>115.4620467826929</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>30.95754073885493</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>180.5487903941885</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>172.2294825375384</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>179.8192178272022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>146.0084629450566</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>52.01660326104803</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>77.79022981064172</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>640177.2699200503</v>
+        <v>640177.2699200504</v>
       </c>
     </row>
     <row r="6">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>640177.2699200504</v>
+        <v>640177.2699200503</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176755</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="G2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977555</v>
-      </c>
       <c r="I2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="J2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.934697756</v>
       </c>
       <c r="L2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977554</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26377,10 +26377,10 @@
         <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.063298011819521e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>5.130482933078058e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.005426303970955e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26441,22 +26441,22 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.6400068798</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729759.7047753626</v>
+        <v>-729759.7047753625</v>
       </c>
       <c r="C6" t="n">
-        <v>598985.0409522299</v>
+        <v>598985.0409522301</v>
       </c>
       <c r="D6" t="n">
-        <v>598985.0409522298</v>
+        <v>598985.0409522296</v>
       </c>
       <c r="E6" t="n">
-        <v>344996.3030596139</v>
+        <v>344648.9238052567</v>
       </c>
       <c r="F6" t="n">
-        <v>670408.7648669691</v>
+        <v>670061.3856126117</v>
       </c>
       <c r="G6" t="n">
-        <v>670408.7648669693</v>
+        <v>670061.3856126117</v>
       </c>
       <c r="H6" t="n">
-        <v>670408.7648669686</v>
+        <v>670061.3856126121</v>
       </c>
       <c r="I6" t="n">
-        <v>670408.7648669688</v>
+        <v>670061.3856126122</v>
       </c>
       <c r="J6" t="n">
-        <v>452877.5624696917</v>
+        <v>452530.1832153348</v>
       </c>
       <c r="K6" t="n">
-        <v>670408.7648669687</v>
+        <v>670061.3856126122</v>
       </c>
       <c r="L6" t="n">
-        <v>670408.7648669691</v>
+        <v>670061.3856126122</v>
       </c>
       <c r="M6" t="n">
-        <v>585353.7369314574</v>
+        <v>585006.3576771002</v>
       </c>
       <c r="N6" t="n">
-        <v>670408.7648669688</v>
+        <v>670061.385612612</v>
       </c>
       <c r="O6" t="n">
-        <v>670408.7648669684</v>
+        <v>670061.3856126121</v>
       </c>
       <c r="P6" t="n">
-        <v>670408.7648669688</v>
+        <v>670061.385612612</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26715,16 +26715,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26937,13 +26937,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.413103666347572e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26971,10 +26971,10 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>362.438685100379</v>
+        <v>362.4386851003781</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>16.84412522327463</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,19 +27593,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>125.3203295840946</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>294.3692147095448</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>56.88895568339387</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="H7" t="n">
-        <v>108.4885274478684</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27824,7 +27824,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>240.2596737416844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>193.7813791304758</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>19.10679127039444</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28572,13 +28572,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31837,31 +31837,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>639.8517673857162</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>235.5705495535876</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32730,7 +32730,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33025,31 +33025,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>531.2627466777524</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33505,25 +33505,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33912,7 +33912,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>508.510055302383</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>92.97430510914316</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36378,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3813224.892540149</v>
+        <v>3814985.422842935</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.79925355567548</v>
+        <v>23.79925355567458</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>72.0880274467727</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>87.56115536271695</v>
+        <v>87.56115536271604</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>58.28185552386356</v>
+        <v>58.28185552386346</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>100.5858322992708</v>
       </c>
       <c r="I13" t="n">
-        <v>41.55695577161149</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634822</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444138</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766865</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.90570098813</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>68.17501931583776</v>
+        <v>68.17501931583824</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,19 +4360,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y2" t="n">
         <v>2731.767278738087</v>
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,31 +4427,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4479,37 +4479,37 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
         <v>848.0708164780106</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221568</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.278680221568</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="D5" t="n">
-        <v>1023.012981614818</v>
+        <v>1023.012981614817</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4603,16 +4603,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261502</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.87852028569</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064547</v>
@@ -4646,13 +4646,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>739.2385409879453</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C7" t="n">
-        <v>570.3023580600384</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D7" t="n">
-        <v>420.1857186477026</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E7" t="n">
-        <v>272.2726250653095</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F7" t="n">
-        <v>125.3826775673992</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4813,13 +4813,13 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -5023,46 +5023,46 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5071,19 +5071,19 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,7 +5117,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
@@ -5132,7 +5132,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E13" t="n">
-        <v>444.7013164925216</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F13" t="n">
-        <v>444.7013164925216</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G13" t="n">
-        <v>277.5052172074016</v>
+        <v>277.5052172074025</v>
       </c>
       <c r="H13" t="n">
-        <v>135.7933860495997</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5275,28 +5275,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5305,7 +5305,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362687</v>
@@ -5512,31 +5512,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5591,13 +5591,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
         <v>402.7245934908938</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5770,7 +5770,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
         <v>776.1751066403293</v>
@@ -6126,49 +6126,49 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6378,37 +6378,37 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
         <v>2254.869721166297</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6682,34 +6682,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7028,10 +7028,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,55 +7308,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746419</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
         <v>2264.108249235165</v>
@@ -7374,10 +7374,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>39.70888054695308</v>
       </c>
       <c r="I13" t="n">
-        <v>39.70888054695404</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194132</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>72.11969353038613</v>
+        <v>72.11969353038562</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26322,40 +26322,40 @@
         <v>800515.7256176755</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="G2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="K2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.129485396250616e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405252</v>
@@ -26429,19 +26429,19 @@
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687961</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687958</v>
       </c>
       <c r="H4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.6400068796</v>
+      </c>
+      <c r="J4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687973</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729759.7047753625</v>
+        <v>-729759.7047753623</v>
       </c>
       <c r="C6" t="n">
-        <v>598985.0409522301</v>
+        <v>598985.0409522299</v>
       </c>
       <c r="D6" t="n">
         <v>598985.0409522296</v>
       </c>
       <c r="E6" t="n">
-        <v>344648.9238052567</v>
+        <v>344961.5651341779</v>
       </c>
       <c r="F6" t="n">
-        <v>670061.3856126117</v>
+        <v>670374.0269415332</v>
       </c>
       <c r="G6" t="n">
-        <v>670061.3856126117</v>
+        <v>670374.0269415337</v>
       </c>
       <c r="H6" t="n">
-        <v>670061.3856126121</v>
+        <v>670374.0269415332</v>
       </c>
       <c r="I6" t="n">
-        <v>670061.3856126122</v>
+        <v>670374.0269415334</v>
       </c>
       <c r="J6" t="n">
-        <v>452530.1832153348</v>
+        <v>452842.8245442559</v>
       </c>
       <c r="K6" t="n">
-        <v>670061.3856126122</v>
+        <v>670374.0269415333</v>
       </c>
       <c r="L6" t="n">
-        <v>670061.3856126122</v>
+        <v>670374.0269415332</v>
       </c>
       <c r="M6" t="n">
-        <v>585006.3576771002</v>
+        <v>585318.9990060215</v>
       </c>
       <c r="N6" t="n">
-        <v>670061.385612612</v>
+        <v>670374.0269415334</v>
       </c>
       <c r="O6" t="n">
-        <v>670061.3856126121</v>
+        <v>670374.0269415335</v>
       </c>
       <c r="P6" t="n">
-        <v>670061.385612612</v>
+        <v>670374.0269415334</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26810,10 +26810,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>362.4386851003781</v>
+        <v>362.438685100379</v>
       </c>
     </row>
     <row r="3">
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>16.84412522327463</v>
+        <v>16.8441252232751</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>294.3692147095448</v>
+        <v>294.3692147095458</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>107.7439527351647</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -28377,10 +28377,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-8.682195192673604e-13</v>
+        <v>-1.672078567559044e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28578,10 +28578,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29091,10 +29091,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-5.16185674531327e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-1.392663762089796e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>357.9244589488886</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34216,16 +34216,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>171.7382405950817</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>226.5827468655553</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>37.7638331807514</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
